--- a/update-readme/ig/StructureDefinition-prescription.xlsx
+++ b/update-readme/ig/StructureDefinition-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:29:22+00:00</t>
+    <t>2024-03-29T13:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
